--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Rukwa_IYCF.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Rukwa_IYCF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2017Sep/regions/IYCFonly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="520" windowWidth="17880" windowHeight="14260" tabRatio="500" firstSheet="17" activeTab="20"/>
+    <workbookView xWindow="4780" yWindow="0" windowWidth="17880" windowHeight="14260" tabRatio="500" firstSheet="19" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -2920,12 +2915,12 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +2936,7 @@
         <v>262285.21381731879</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2949,7 +2944,7 @@
         <v>48534.489523807431</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2957,7 +2952,7 @@
         <v>57066.196276920477</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2965,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2973,7 +2968,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2985,6 +2980,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2996,12 +2996,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3607,6 +3607,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3618,13 +3623,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3641,7 +3646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3660,7 +3665,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3679,7 +3684,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3698,7 +3703,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3717,7 +3722,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3736,7 +3741,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3755,7 +3760,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3774,7 +3779,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3793,113 +3798,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3911,9 +3921,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3927,7 +3937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3943,6 +3953,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3952,12 +3967,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3977,7 +3992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -3997,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -4017,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -4037,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -4059,6 +4074,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4070,9 +4090,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4092,7 +4112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4114,6 +4134,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4125,9 +4150,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4141,7 +4166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4157,6 +4182,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4168,12 +4198,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4193,7 +4223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4213,7 +4243,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4221,7 +4251,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4229,7 +4259,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4240,6 +4270,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4249,12 +4284,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -4274,7 +4309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4294,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4314,7 +4349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4334,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4356,6 +4391,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4365,13 +4405,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4391,7 +4431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -4413,6 +4453,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4422,12 +4467,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4444,7 +4489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4461,14 +4506,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4477,6 +4522,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4488,13 +4538,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4502,7 +4552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4510,7 +4560,7 @@
         <v>49472.326000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4518,7 +4568,7 @@
         <v>50410.19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4526,7 +4576,7 @@
         <v>51582.520000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4534,7 +4584,7 @@
         <v>52520.384000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4542,7 +4592,7 @@
         <v>53458.248000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4550,7 +4600,7 @@
         <v>54630.578000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4558,7 +4608,7 @@
         <v>55802.908000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4566,7 +4616,7 @@
         <v>56740.772000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4574,7 +4624,7 @@
         <v>58147.568000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4582,7 +4632,7 @@
         <v>59319.898000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4590,7 +4640,7 @@
         <v>60492.228000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4598,7 +4648,7 @@
         <v>61664.558000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4606,7 +4656,7 @@
         <v>63071.354000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4616,6 +4666,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4623,11 +4678,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4635,7 +4690,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4649,7 +4704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4666,7 +4721,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4683,7 +4738,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4697,7 +4752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4714,7 +4769,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4731,12 +4786,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="38">
-        <v>0</v>
+      <c r="B7" s="32">
+        <v>4.3361049713611551E-2</v>
       </c>
       <c r="C7" s="37">
         <v>0.95</v>
@@ -4748,72 +4803,72 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -4821,6 +4876,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4828,9 +4888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4840,7 +4900,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4865,7 +4925,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4888,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4913,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4937,7 +4997,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4960,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4983,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5006,65 +5066,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
@@ -5072,6 +5132,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5083,12 +5148,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5108,7 +5173,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5128,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5147,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5167,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5184,14 +5249,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5201,6 +5266,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5212,12 +5282,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5240,7 +5310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5263,7 +5333,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5283,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5306,7 +5376,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5330,6 +5400,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5341,12 +5416,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5369,7 +5444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5392,7 +5467,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5412,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5438,7 +5513,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5462,6 +5537,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5473,12 +5553,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5501,7 +5581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5524,7 +5604,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5544,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5570,7 +5650,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5594,6 +5674,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5605,9 +5690,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5618,7 +5703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="29">
         <v>40</v>
       </c>
@@ -5633,6 +5718,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5644,12 +5734,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5669,7 +5759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5689,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5709,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5729,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5749,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5769,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5789,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5809,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5829,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5849,7 +5939,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5869,7 +5959,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5889,7 +5979,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5909,7 +5999,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5929,7 +6019,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5949,7 +6039,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5969,7 +6059,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5989,7 +6079,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6016,6 +6106,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6027,9 +6122,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -6052,7 +6147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6080,7 +6175,7 @@
         <v>8.5330190657026073</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6105,7 +6200,7 @@
         <v>27.032940236622977</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6125,7 +6220,7 @@
         <v>37.34446804810176</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6145,7 +6240,7 @@
         <v>27.089572649572652</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6168,7 +6263,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6188,7 +6283,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6208,7 +6303,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6228,7 +6323,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6251,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6271,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6291,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6319,6 +6414,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6330,9 +6430,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6343,7 +6443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="30">
         <v>3.0113953488372092E-2</v>
       </c>
@@ -6356,6 +6456,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6367,9 +6472,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6389,7 +6494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6409,7 +6514,7 @@
         <v>3.373665254237288</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6433,6 +6538,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6442,9 +6552,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6467,7 +6577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6490,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6510,7 +6620,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6530,7 +6640,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6550,7 +6660,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6573,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6593,7 +6703,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6613,7 +6723,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6633,7 +6743,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6656,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6676,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6696,7 +6806,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6716,7 +6826,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6739,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6759,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6779,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6799,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6822,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6842,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6862,7 +6972,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6884,6 +6994,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6893,9 +7008,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6918,7 +7033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6941,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6961,7 +7076,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6981,7 +7096,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -7001,7 +7116,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -7024,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7044,7 +7159,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -7064,7 +7179,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7084,7 +7199,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7107,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7127,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7147,7 +7262,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7167,7 +7282,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7190,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7210,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7230,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7250,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7273,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7293,7 +7408,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7313,7 +7428,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7335,5 +7450,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>